--- a/src/main/resources/templates/ChartTemplate.xlsx
+++ b/src/main/resources/templates/ChartTemplate.xlsx
@@ -886,13 +886,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4761</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1179,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
